--- a/std.xlsx
+++ b/std.xlsx
@@ -22,22 +22,22 @@
     <t>מס דרישה</t>
   </si>
   <si>
-    <t>דרישת בן (פונקציה)</t>
-  </si>
-  <si>
-    <t>הסבר לפונקציה (מה)</t>
+    <t>דרישת בן</t>
+  </si>
+  <si>
+    <t>הסבר לפונקציה</t>
   </si>
   <si>
     <t>סעיף תנאי הבדיקה</t>
   </si>
   <si>
-    <t>תנאי בדיקה test condition (איך)</t>
+    <t>תנאי בדיקה</t>
   </si>
   <si>
     <t>מס תסריט</t>
   </si>
   <si>
-    <t>תסריט הבדיקה test case</t>
+    <t>תסריט הבדיקה</t>
   </si>
   <si>
     <t>מטרה</t>
@@ -647,7 +647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,16 +655,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCD3E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E8ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -672,12 +698,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,1776 +1025,1960 @@
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>1.1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="B3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>2.1</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="E4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>2.2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>3.1</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="E6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
         <v>3.2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>4.1</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="E8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>4.2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>5.1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>6.1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="B11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>7.1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>8.1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>9.1</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="E14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
         <v>9.199999999999999</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>10.1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>11.1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>12.1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>13.1</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="2">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="E19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
         <v>13.2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>18</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="B20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>14.1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="E21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
         <v>14.2</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>20</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="E22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
         <v>14.3</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>21</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>15.1</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>22</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="E24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>15.2</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>23</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="E25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>15.3</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>24</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="E26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <v>15.4</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>25</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="E27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>15.5</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>26</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="E28">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <v>15.6</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>27</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
         <v>16</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>16.1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>28</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="E30">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <v>16.2</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>29</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>17.1</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>30</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>18.1</v>
       </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32">
+      <c r="F32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="2">
         <v>31</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="E33">
+    <row r="33" spans="1:9">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
         <v>18.2</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>32</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="E34">
+    <row r="34" spans="1:9">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
         <v>18.3</v>
       </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34">
+      <c r="F34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="2">
         <v>33</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35">
+    <row r="35" spans="1:9">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2">
         <v>19</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>19.1</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="2">
         <v>34</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36">
+    <row r="36" spans="1:9">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2">
         <v>20</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>20.1</v>
       </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36">
+      <c r="F36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="2">
         <v>35</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
-      <c r="B37">
+    <row r="37" spans="1:9">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>21.1</v>
       </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37">
+      <c r="F37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="2">
         <v>36</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38">
+    <row r="38" spans="1:9">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2">
         <v>22</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>22.1</v>
       </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38">
+      <c r="F38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="2">
         <v>37</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39">
+    <row r="39" spans="1:9">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2">
         <v>23</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>23.1</v>
       </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39">
+      <c r="F39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="2">
         <v>38</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40">
+    <row r="40" spans="1:9">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2">
         <v>24</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>24.1</v>
       </c>
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40">
+      <c r="F40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="2">
         <v>39</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41">
+    <row r="41" spans="1:9">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2">
         <v>25</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>25.1</v>
       </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41">
+      <c r="F41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="2">
         <v>40</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42">
+    <row r="42" spans="1:9">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2">
         <v>26</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>26.1</v>
       </c>
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42">
+      <c r="F42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="2">
         <v>41</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43">
+    <row r="43" spans="1:9">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2">
         <v>27</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>27.1</v>
       </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43">
+      <c r="F43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="2">
         <v>42</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44">
+    <row r="44" spans="1:9">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2">
         <v>28</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>28.1</v>
       </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44">
+      <c r="F44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="2">
         <v>43</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45">
+    <row r="45" spans="1:9">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2">
         <v>29</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>29.1</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>44</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46">
+    <row r="46" spans="1:9">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2">
         <v>30</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>30.1</v>
       </c>
-      <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="2">
         <v>45</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47">
+    <row r="47" spans="1:9">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2">
         <v>31</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>31.1</v>
       </c>
-      <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47">
+      <c r="F47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="2">
         <v>46</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
-      <c r="G48">
+    <row r="48" spans="1:9">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2">
         <v>47</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="B49">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2">
         <v>32</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>32.1</v>
       </c>
-      <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49">
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="2">
         <v>48</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="B50">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2">
         <v>33</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>33.1</v>
       </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50">
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="2">
         <v>49</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="B51">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2">
         <v>34</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>34.1</v>
       </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51">
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="2">
         <v>50</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="B52">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2">
         <v>35</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>35.1</v>
       </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52">
+      <c r="F52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="2">
         <v>51</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="B53">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2">
         <v>36</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>36.1</v>
       </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53">
+      <c r="F53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="2">
         <v>52</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="E54">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2">
         <v>36.2</v>
       </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54">
+      <c r="F54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="2">
         <v>53</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="E55">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2">
         <v>36.3</v>
       </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55">
+      <c r="F55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="2">
         <v>54</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="E56">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
         <v>36.4</v>
       </c>
-      <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56">
+      <c r="F56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="2">
         <v>55</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="E57">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2">
         <v>36.5</v>
       </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57">
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="2">
         <v>56</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>37</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>37.1</v>
       </c>
-      <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="3">
         <v>57</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="E59">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
         <v>37.2</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>58</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="E60">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
         <v>37.3</v>
       </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="3">
         <v>59</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="E61">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3">
         <v>37.4</v>
       </c>
-      <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="3">
         <v>60</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="B62">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3">
         <v>38</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>38.1</v>
       </c>
-      <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62">
+      <c r="F62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="3">
         <v>61</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>39</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>39.1</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>62</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="E64">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
         <v>39.2</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>63</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="B65">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2">
         <v>40</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>40.1</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>64</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>41</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>41.1</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>65</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="B67">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3">
         <v>42</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>42.1</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>66</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="E68">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
         <v>42.2</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
         <v>67</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>43</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>43.1</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>68</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>44</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>44.1</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
         <v>69</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="G71">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3">
         <v>70</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="G72">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3">
         <v>71</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="B73">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3">
         <v>45</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>45.1</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>72</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="B74">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3">
         <v>46</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>46.1</v>
       </c>
-      <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74">
+      <c r="F74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="3">
         <v>73</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="E75">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
         <v>46.2</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <v>74</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="B76">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3">
         <v>47</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>47.1</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <v>75</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="G77">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3">
         <v>76</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="G78">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3">
         <v>77</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="G79">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3">
         <v>78</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="3" t="s">
         <v>208</v>
       </c>
     </row>
